--- a/dist/data/profiles/xlsx/bluff/profile 32-6 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 32-6 graph.xlsx
@@ -18901,11 +18901,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31791888"/>
-        <c:axId val="5670058"/>
+        <c:axId val="44549633"/>
+        <c:axId val="28276383"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31791888"/>
+        <c:axId val="44549633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18940,12 +18940,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5670058"/>
+        <c:crossAx val="28276383"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5670058"/>
+        <c:axId val="28276383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18989,7 +18989,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31791888"/>
+        <c:crossAx val="44549633"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
